--- a/조인.xlsx
+++ b/조인.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEBF6E8-B178-46AC-B766-A9D0C0638A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401DAB5B-0DD3-4A63-9929-8DF3955FA1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{140929FC-52E4-401A-BEFD-1AC1EE8ADE28}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="134">
   <si>
     <t>S0001</t>
   </si>
@@ -448,6 +448,14 @@
   </si>
   <si>
     <t>SYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -886,161 +894,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA092FB-FD9F-4AFE-8F9C-2EB472EEF85A}">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:X80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="C55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="7" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="9" style="1"/>
+    <col min="19" max="19" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4">
         <v>41275</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>8500</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="R3" s="4">
+      <c r="S3" s="4">
         <v>42095</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
         <v>41286</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>8200</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="R4" s="4">
+      <c r="S4" s="4">
         <v>42156</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1048,165 +1059,169 @@
         <v>14</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4">
         <v>41730</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>6500</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="R5" s="4">
+      <c r="S5" s="4">
         <v>41699</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>41852</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>7000</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="R6" s="4">
+      <c r="S6" s="4">
         <v>41395</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
         <v>42005</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>42766</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>6400</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="R7" s="4">
+      <c r="S7" s="4">
         <v>41395</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
         <v>42064</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6000</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="4">
+      <c r="R8" s="3"/>
+      <c r="S8" s="4">
         <v>43252</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
@@ -1214,101 +1229,104 @@
         <v>36</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
         <v>42125</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6000</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <v>41275</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>42217</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>42643</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6300</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>42278</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>5800</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
@@ -1316,147 +1334,152 @@
         <v>51</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>42370</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5000</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
         <v>42401</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>4700</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
         <v>42401</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6500</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4">
         <v>42461</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4500</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
         <v>42461</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>5000</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>74</v>
       </c>
@@ -1464,89 +1487,92 @@
         <v>75</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4">
         <v>42522</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>42886</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4700</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>42522</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7200</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="4">
         <v>43070</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J19" s="3">
         <v>4000</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>88</v>
       </c>
@@ -1554,29 +1580,30 @@
         <v>89</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4">
         <v>43101</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>43281</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5300</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>92</v>
       </c>
@@ -1584,55 +1611,57 @@
         <v>93</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="4">
         <v>43101</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6000</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>43191</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1643,487 +1672,499 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="J25" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M25" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="N25" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="O25" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="4">
         <v>41275</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8500</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="N26" s="4">
+      <c r="O26" s="4">
         <v>42095</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4">
         <v>41275</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8500</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="N27" s="4">
+      <c r="O27" s="4">
         <v>42156</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4">
         <v>41275</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="3">
+      <c r="J28" s="3">
         <v>8500</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="N28" s="4">
+      <c r="O28" s="4">
         <v>41699</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="4">
         <v>41275</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>8500</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="N29" s="4">
+      <c r="O29" s="4">
         <v>41395</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="4">
         <v>41275</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="3"/>
+      <c r="H30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="3">
+      <c r="J30" s="3">
         <v>8500</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="N30" s="4">
+      <c r="O30" s="4">
         <v>41395</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="4">
         <v>41275</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I31" s="3">
+      <c r="J31" s="3">
         <v>8500</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="4">
+      <c r="N31" s="3"/>
+      <c r="O31" s="4">
         <v>43252</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="4">
         <v>41275</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>8500</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N32" s="4">
+      <c r="O32" s="4">
         <v>41275</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="I36" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="J36" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M36" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="6" t="s">
+      <c r="N36" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="N36" s="6" t="s">
+      <c r="O36" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="4">
         <v>41275</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I37" s="3">
+      <c r="J37" s="3">
         <v>8500</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M37" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N37" s="4">
+      <c r="O37" s="4">
         <v>41275</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="4">
         <v>41286</v>
       </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I38" s="3">
+      <c r="J38" s="3">
         <v>8200</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M38" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="N38" s="4">
+      <c r="O38" s="4">
         <v>41699</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>13</v>
       </c>
@@ -2131,131 +2172,135 @@
         <v>14</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="4">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="4">
         <v>41730</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="3">
+      <c r="J39" s="3">
         <v>6500</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M39" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N39" s="4">
+      <c r="O39" s="4">
         <v>41275</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <v>41852</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="3">
+      <c r="J40" s="3">
         <v>7000</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="4">
         <v>42005</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>42766</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6400</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="4">
         <v>42064</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="3"/>
+      <c r="H42" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>6000</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>35</v>
       </c>
@@ -2263,89 +2308,92 @@
         <v>36</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="4">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="4">
         <v>42125</v>
       </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="3"/>
+      <c r="H43" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6000</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>42217</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>42643</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6300</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>42278</v>
       </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="3"/>
+      <c r="H45" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5800</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
@@ -2353,147 +2401,152 @@
         <v>51</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="4">
         <v>42370</v>
       </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="3"/>
+      <c r="H46" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5000</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="K46" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="4">
         <v>42401</v>
       </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="3"/>
+      <c r="H47" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4700</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="4">
         <v>42401</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="3"/>
+      <c r="H48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6500</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="4">
         <v>42461</v>
       </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="3"/>
+      <c r="H49" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4500</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="4">
         <v>42461</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="3"/>
+      <c r="H50" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I50" s="3">
+      <c r="J50" s="3">
         <v>5000</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>74</v>
       </c>
@@ -2501,89 +2554,92 @@
         <v>75</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="4">
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="4">
         <v>42522</v>
       </c>
-      <c r="F51" s="4">
+      <c r="G51" s="4">
         <v>42886</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I51" s="3">
+      <c r="J51" s="3">
         <v>4700</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="4">
+      <c r="F52" s="4">
         <v>42522</v>
       </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="3"/>
+      <c r="H52" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7200</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="4">
         <v>43070</v>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I53" s="3">
+      <c r="J53" s="3">
         <v>4000</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="K53" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>88</v>
       </c>
@@ -2591,29 +2647,30 @@
         <v>89</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="4">
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="4">
         <v>43101</v>
       </c>
-      <c r="F54" s="4">
+      <c r="G54" s="4">
         <v>43281</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5300</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="K54" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>92</v>
       </c>
@@ -2621,51 +2678,1389 @@
         <v>93</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="4">
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="4">
         <v>43101</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="3"/>
+      <c r="H55" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="I55" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I55" s="3">
+      <c r="J55" s="3">
         <v>6000</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="K55" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="4">
+      <c r="F56" s="4">
         <v>43191</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="3"/>
+      <c r="H56" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="I56" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3" t="s">
+      <c r="J56" s="3"/>
+      <c r="K56" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R60" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="S60" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="T60" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="U60" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="V60" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="W60" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="X60" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="4">
+        <v>41275</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S61" s="4">
+        <v>41275</v>
+      </c>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W61" s="3">
+        <v>8500</v>
+      </c>
+      <c r="X61" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="4">
+        <v>41286</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="4">
+        <v>41286</v>
+      </c>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W62" s="3">
+        <v>8200</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="54" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="4">
+        <v>41730</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S63" s="4">
+        <v>41730</v>
+      </c>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W63" s="3">
+        <v>6500</v>
+      </c>
+      <c r="X63" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="54" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="4">
+        <v>41852</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J64" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R64" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S64" s="4">
+        <v>41852</v>
+      </c>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W64" s="3">
+        <v>7000</v>
+      </c>
+      <c r="X64" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="4">
+        <v>42005</v>
+      </c>
+      <c r="G65" s="4">
+        <v>42766</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J65" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q65" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S65" s="4">
+        <v>42005</v>
+      </c>
+      <c r="T65" s="4">
+        <v>42766</v>
+      </c>
+      <c r="U65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W65" s="3">
+        <v>6400</v>
+      </c>
+      <c r="X65" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" ht="54" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="4">
+        <v>42064</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="4">
+        <v>42064</v>
+      </c>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="4">
+        <v>42125</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J67" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S67" s="4">
+        <v>42125</v>
+      </c>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V67" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W67" s="3">
+        <v>6000</v>
+      </c>
+      <c r="X67" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="4">
+        <v>42217</v>
+      </c>
+      <c r="G68" s="4">
+        <v>42643</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J68" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q68" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R68" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S68" s="4">
+        <v>42217</v>
+      </c>
+      <c r="T68" s="4">
+        <v>42643</v>
+      </c>
+      <c r="U68" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="W68" s="3">
+        <v>6300</v>
+      </c>
+      <c r="X68" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="4">
+        <v>42278</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J69" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q69" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R69" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S69" s="4">
+        <v>42278</v>
+      </c>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W69" s="3">
+        <v>5800</v>
+      </c>
+      <c r="X69" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" ht="54" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" s="4">
+        <v>42370</v>
+      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J70" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S70" s="4">
+        <v>42370</v>
+      </c>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W70" s="3">
+        <v>5000</v>
+      </c>
+      <c r="X70" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="4">
+        <v>42401</v>
+      </c>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J71" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P71" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q71" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S71" s="4">
+        <v>42401</v>
+      </c>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V71" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="W71" s="3">
+        <v>4700</v>
+      </c>
+      <c r="X71" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="4">
+        <v>42401</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J72" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="4">
+        <v>42401</v>
+      </c>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W72" s="3">
+        <v>6500</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" ht="54" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="4">
+        <v>42461</v>
+      </c>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J73" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P73" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q73" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S73" s="4">
+        <v>42461</v>
+      </c>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="V73" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="W73" s="3">
+        <v>4500</v>
+      </c>
+      <c r="X73" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" s="4">
+        <v>42461</v>
+      </c>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J74" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S74" s="4">
+        <v>42461</v>
+      </c>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V74" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="W74" s="3">
+        <v>5000</v>
+      </c>
+      <c r="X74" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="4">
+        <v>42522</v>
+      </c>
+      <c r="G75" s="4">
+        <v>42886</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J75" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P75" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S75" s="4">
+        <v>42522</v>
+      </c>
+      <c r="T75" s="4">
+        <v>42886</v>
+      </c>
+      <c r="U75" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V75" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="W75" s="3">
+        <v>4700</v>
+      </c>
+      <c r="X75" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="4">
+        <v>42522</v>
+      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J76" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S76" s="4">
+        <v>42522</v>
+      </c>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="W76" s="3">
+        <v>7200</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77" s="4">
+        <v>43070</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J77" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P77" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q77" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R77" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S77" s="4">
+        <v>43070</v>
+      </c>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="V77" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W77" s="3">
+        <v>4000</v>
+      </c>
+      <c r="X77" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" ht="54" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" s="4">
+        <v>43101</v>
+      </c>
+      <c r="G78" s="4">
+        <v>43281</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J78" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P78" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S78" s="4">
+        <v>43101</v>
+      </c>
+      <c r="T78" s="4">
+        <v>43281</v>
+      </c>
+      <c r="U78" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="V78" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="W78" s="3">
+        <v>5300</v>
+      </c>
+      <c r="X78" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F79" s="4">
+        <v>43101</v>
+      </c>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J79" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P79" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S79" s="4">
+        <v>43101</v>
+      </c>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V79" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="W79" s="3">
+        <v>6000</v>
+      </c>
+      <c r="X79" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="4">
+        <v>43191</v>
+      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P80" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q80" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R80" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S80" s="4">
+        <v>43191</v>
+      </c>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="V80" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3" t="s">
         <v>99</v>
       </c>
     </row>
